--- a/biology/Virologie/Virus_des_tumeurs_de_blessure/Virus_des_tumeurs_de_blessure.xlsx
+++ b/biology/Virologie/Virus_des_tumeurs_de_blessure/Virus_des_tumeurs_de_blessure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus des tumeurs de blessure (Wound tumor virus - WTV) est un virus affectant les plantes et les invertébrés, rattaché au genre Phytoreovirus et la famille des Reoviridae. On le trouve aux États-Unis.
 C'est un virus du type III selon le système de classification Baltimore ; c'est-à-dire qu'il a un génome formé d'ARN à double brin. Ce génome comprend environ 25 000 paires de bases et est structuré en douze fragments. La réplication virale se produit en totalité dans le cytoplasme. Le virus est constitué de 22 % d'ARN en masse, les 78 % restants étant des protéines de structure.
@@ -515,12 +527,14 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Clover wound tumor virus,
 clover big vein virus,
 Aureogenus magnivena,
-Trifoliumvirus nervicrassans[1].</t>
+Trifoliumvirus nervicrassans.</t>
         </is>
       </c>
     </row>
@@ -548,9 +562,11 @@
           <t>Liste des non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (9 juin 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (9 juin 2014) :
 non-classé Wound tumor virus (strain NJ)</t>
         </is>
       </c>
